--- a/DOC/系统参数.xlsx
+++ b/DOC/系统参数.xlsx
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/DOC/系统参数.xlsx
+++ b/DOC/系统参数.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>参数名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,15 +110,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否显示个人单据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统参数设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人参数设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A24" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -487,7 +479,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -595,16 +587,6 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
